--- a/pred_ohlcv/54_21/2019-10-30 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14784.61727070707</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4164809.437562543</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4164589.941042342</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4169119.972942342</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1671488.586170707</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4144342.586170707</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4164809.437562543</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4169119.972942342</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
